--- a/Test/Assets/StreamingAssets/ItemGarbage.xlsx
+++ b/Test/Assets/StreamingAssets/ItemGarbage.xlsx
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon/Paper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,14 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Medicine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Hamburger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item-Battery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,14 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Sandwich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon/Sandwich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Ceramic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,6 +803,34 @@
   </si>
   <si>
     <t>陶瓷不太容易回收。陶胎是由无机氧化物烧结而成，如果想把陶瓷碎片再次烧结一起，就没那么容易了。所以陶瓷制品一般都是作为不可回收物品。陶瓷对环境造成的污染不是很大，不过大家在扔陶瓷碎片的时候，最好将陶瓷碎片装在垃圾袋中，以免环保工人在处理垃圾的过程中，不慎被陶瓷扎破手指。</t>
+  </si>
+  <si>
+    <t>Prefab/Model/Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Hamburger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Sandwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Model/Ceramic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,18 +1258,18 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1281,15 +1281,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1301,147 +1301,147 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
